--- a/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
+++ b/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>/home/admin/proactive_check</t>
   </si>
@@ -59,7 +59,25 @@
     <t>corrosponding prints</t>
   </si>
   <si>
-    <t xml:space="preserve">True </t>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if proactive_check.pl exists </t>
+  </si>
+  <si>
+    <t>check if owners are root:root</t>
+  </si>
+  <si>
+    <t>owners</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -75,12 +93,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,8 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,316 +424,418 @@
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="J18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
+++ b/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>

--- a/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
+++ b/upgrade_tasks/latestProactiveCheck_TestCases.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,9 +537,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -561,9 +565,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -715,9 +723,13 @@
         <v>17</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
